--- a/biology/Zoologie/Animaux_de_compagnie_de_Vladimir_Poutine/Animaux_de_compagnie_de_Vladimir_Poutine.xlsx
+++ b/biology/Zoologie/Animaux_de_compagnie_de_Vladimir_Poutine/Animaux_de_compagnie_de_Vladimir_Poutine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vladimir Poutine, l'actuel président de la Russie, a possédé sept chiens. Il en possède quatre depuis 2014[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vladimir Poutine, l'actuel président de la Russie, a possédé sept chiens. Il en possède quatre depuis 2014,.
 </t>
         </is>
       </c>
@@ -511,22 +523,11 @@
           <t>Chiens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsque Vladimir Poutine a pris ses fonctions, la famille Poutine avait deux caniches, Tosya et Rodeo. Ils seraient restés avec son ex-femme Lyudmila après leur divorce[3]. Les diplomates étrangers, informés de son amour des chiens, lui en offrent à plusieurs reprises[4].
-Konni (1999-2014)
-Konni (1999-2014) était une femelle Labrador retriever noire. Elle est née en 1999 et présentée à Vladimir Poutine en décembre 2000. Konni était souvent vu aux côtés de Poutine et était parfois autorisée à assister à des réunions lorsqu'il saluait les dirigeants mondiaux lors de visites en Russie[5].
-Connaissant la peur des chiens d'Angela Merkel, il n'a pas hésité à exploiter cette aversion pour instaurer un rapport de force lors d'une rencontre en 2007[6].  
-Poutine a été formé sur les progrès du système russe de navigation par satellite (GLONASS) en 2007 lorsqu'il a demandé s'il serait en mesure d'acheter un appareil connecté au GLONASS qui lui permettrait de suivre sa chienne, Konni. Le collier a été présenté à Konni le 17 octobre 2008, faisant ainsi de Konni la première destinataire d'un collier pour animal de compagnie compatible GLONASS[7],[8],[9].
-Buffy (2010-présent)
-Buffy, un berger bulgare[10] caramel et blanc âgé de 10 semaines, a été donné au président Vladimir Poutine lors d'une visite en Bulgarie en novembre 2010 par le Premier ministre bulgare Boyko Borisov[11],[12]. Le nom « Buffy » a été choisi par un garçon de cinq ans lors d'une compétition nationale[11].
-Yume (2012-présent)
-Yume est une chienne Akita. Elle est arrivée à Moscou à l'âge de 3 mois en provenance de Tokyo en juillet 2012, comme cadeau de la préfecture d'Akita pour montrer sa gratitude pour l'aide de la Russie après le tremblement de terre et le tsunami de Tōhoku en 2011. « Yume » signifie « rêve » en japonais[13],[14],[15].
-En 2016, le gouvernement japonais a offert à Poutine un chiot mâle Akita comme compagnon pour Yume, mais ce cadeau a été refusé[16],[17],[5].
-Verni (2017-présent)
-Verni était un cadeau d'anniversaire de Gurbanguly Berdimuhamedow, président du Turkménistan, lors d'une réunion à Sotchi en octobre 2017. Le chiot est un Alabai, une variété de race turkmène du chien de berger d'Asie centrale. « Verni » signifie « fidèle » ou « loyal » en russe[18],[9],[19].
-Pacha (2019-présent)
-Pacha (serbe en écriture cyrillique : Паша) est un chiot Šarplaninac qui a été donné à Vladimir Poutine par le président serbe Aleksandar Vučić lors d'une visite officielle en janvier 2019[20].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque Vladimir Poutine a pris ses fonctions, la famille Poutine avait deux caniches, Tosya et Rodeo. Ils seraient restés avec son ex-femme Lyudmila après leur divorce. Les diplomates étrangers, informés de son amour des chiens, lui en offrent à plusieurs reprises.
 </t>
         </is>
       </c>
@@ -552,12 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chevaux</t>
+          <t>Chiens</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2017, Almazbek Atambaev, président du Kirghizistan, lui offre un cheval, un étalon pur-sang de couleur grise[21].
+          <t>Konni (1999-2014)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Konni (1999-2014) était une femelle Labrador retriever noire. Elle est née en 1999 et présentée à Vladimir Poutine en décembre 2000. Konni était souvent vu aux côtés de Poutine et était parfois autorisée à assister à des réunions lorsqu'il saluait les dirigeants mondiaux lors de visites en Russie.
+Connaissant la peur des chiens d'Angela Merkel, il n'a pas hésité à exploiter cette aversion pour instaurer un rapport de force lors d'une rencontre en 2007.  
+Poutine a été formé sur les progrès du système russe de navigation par satellite (GLONASS) en 2007 lorsqu'il a demandé s'il serait en mesure d'acheter un appareil connecté au GLONASS qui lui permettrait de suivre sa chienne, Konni. Le collier a été présenté à Konni le 17 octobre 2008, faisant ainsi de Konni la première destinataire d'un collier pour animal de compagnie compatible GLONASS.
 </t>
         </is>
       </c>
@@ -583,14 +592,198 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Chiens</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Buffy (2010-présent)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buffy, un berger bulgare caramel et blanc âgé de 10 semaines, a été donné au président Vladimir Poutine lors d'une visite en Bulgarie en novembre 2010 par le Premier ministre bulgare Boyko Borisov,. Le nom « Buffy » a été choisi par un garçon de cinq ans lors d'une compétition nationale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Animaux_de_compagnie_de_Vladimir_Poutine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Animaux_de_compagnie_de_Vladimir_Poutine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chiens</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yume (2012-présent)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yume est une chienne Akita. Elle est arrivée à Moscou à l'âge de 3 mois en provenance de Tokyo en juillet 2012, comme cadeau de la préfecture d'Akita pour montrer sa gratitude pour l'aide de la Russie après le tremblement de terre et le tsunami de Tōhoku en 2011. « Yume » signifie « rêve » en japonais.
+En 2016, le gouvernement japonais a offert à Poutine un chiot mâle Akita comme compagnon pour Yume, mais ce cadeau a été refusé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Animaux_de_compagnie_de_Vladimir_Poutine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Animaux_de_compagnie_de_Vladimir_Poutine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chiens</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Verni (2017-présent)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Verni était un cadeau d'anniversaire de Gurbanguly Berdimuhamedow, président du Turkménistan, lors d'une réunion à Sotchi en octobre 2017. Le chiot est un Alabai, une variété de race turkmène du chien de berger d'Asie centrale. « Verni » signifie « fidèle » ou « loyal » en russe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Animaux_de_compagnie_de_Vladimir_Poutine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Animaux_de_compagnie_de_Vladimir_Poutine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chiens</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pacha (2019-présent)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pacha (serbe en écriture cyrillique : Паша) est un chiot Šarplaninac qui a été donné à Vladimir Poutine par le président serbe Aleksandar Vučić lors d'une visite officielle en janvier 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Animaux_de_compagnie_de_Vladimir_Poutine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Animaux_de_compagnie_de_Vladimir_Poutine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chevaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, Almazbek Atambaev, président du Kirghizistan, lui offre un cheval, un étalon pur-sang de couleur grise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Animaux_de_compagnie_de_Vladimir_Poutine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Animaux_de_compagnie_de_Vladimir_Poutine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Culte de la personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pour le journaliste politique Lucas Jakubowicz, Vladimir Poutine instrumentalise les animaux pour montrer son côté humain mais aussi sa puissance, offrant ainsi un double visage. Il se fait prendre en photos avec ses chiens montrant ainsi un visage humain et empathique. Au contraire, sa puissance s'exprime dans la nature sauvage qu'il est capable de dompter[22].
-Burdett Loomis, professeur de science-politique à l'université de Kansas, estime dans The Washington Post que Poutine sait que les photos avec les animaux représentent une occasion d'améliorer son image[23]. Cette « propagande animalière » permet d'estomper l’image autoritaire qu'il affiche par ailleurs[4].
-Pour Jan Kubik, professeur en études slaves, les images de Vladimir Poutine avec des animaux servent à au moins trois objectifs pour son image[23] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pour le journaliste politique Lucas Jakubowicz, Vladimir Poutine instrumentalise les animaux pour montrer son côté humain mais aussi sa puissance, offrant ainsi un double visage. Il se fait prendre en photos avec ses chiens montrant ainsi un visage humain et empathique. Au contraire, sa puissance s'exprime dans la nature sauvage qu'il est capable de dompter.
+Burdett Loomis, professeur de science-politique à l'université de Kansas, estime dans The Washington Post que Poutine sait que les photos avec les animaux représentent une occasion d'améliorer son image. Cette « propagande animalière » permet d'estomper l’image autoritaire qu'il affiche par ailleurs.
+Pour Jan Kubik, professeur en études slaves, les images de Vladimir Poutine avec des animaux servent à au moins trois objectifs pour son image :
 Montrer une image virile, notamment lorsqu'il monte un cheval torse nu,
 Montrer une image plus douce, relativisant ainsi son image de cruel dictateur,
 Montrer globalement qu'il « a un cœur » mais que son amour est dur et viril.</t>
